--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2328292.807755558</v>
+        <v>-2330529.504172607</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3378326.849234222</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16326771.75622087</v>
+        <v>16353570.61531172</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>383.6436009605837</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>264.8879221332169</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>207.5460986008447</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>134.9474759313288</v>
+        <v>43.63030091584158</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>160.6335276424233</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>75.3507400628253</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.6756852658852</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.9154470216035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>81.38206398970293</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>316.8668404859964</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>86.78911478711561</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>95.5135662956216</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>152.5269928896563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.28340218928844</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>234.7495998360718</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>166.9311856720008</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>7.775258852768224</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>76.6623495606127</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857186</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
         <v>78.30207251692852</v>
@@ -2494,7 +2494,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2536,7 +2536,7 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069503</v>
+        <v>218.39110820695</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373663</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789515</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378954</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>293.083813594105</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555819</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463108</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287482</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689375</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>99.11493096898711</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857163</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>78.30207251692845</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>77.28915789329052</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>98.36167833373686</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>80.7819382378954</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3772837912455</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U43" t="n">
-        <v>239.23670158702</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797657</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433864</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572818</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124549</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145473</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.041796525165</v>
+        <v>753.3268044525212</v>
       </c>
       <c r="C2" t="n">
-        <v>1453.079279584754</v>
+        <v>753.3268044525212</v>
       </c>
       <c r="D2" t="n">
-        <v>1094.813580978003</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="E2" t="n">
-        <v>709.025328379759</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="F2" t="n">
-        <v>321.5065395306845</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>321.5065395306845</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2256.300390023649</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1903.531734753534</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>1530.065976492455</v>
       </c>
       <c r="Y2" t="n">
-        <v>1822.041796525165</v>
+        <v>1139.926644516643</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>443.6717438918015</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>506.4943954681378</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2534.893002490522</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2316.258335462585</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2062.496550100676</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1731.433662757106</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1731.433662757106</v>
       </c>
       <c r="X5" t="n">
-        <v>1233.603060210037</v>
+        <v>1731.433662757106</v>
       </c>
       <c r="Y5" t="n">
-        <v>1233.603060210037</v>
+        <v>1341.294330781294</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.069036214947</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2129.977023460873</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1777.208368190759</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1777.208368190759</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y8" t="n">
-        <v>1387.069036214947</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4890,22 +4890,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.6087543326024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>323.2572191628421</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>323.2572191628421</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,22 +5024,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.6647764207315</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364826</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="Y13" t="n">
-        <v>538.3132412509711</v>
+        <v>809.2953582963253</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5315,10 +5315,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.7466045204288</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>950.8003491200559</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>696.115860914169</v>
       </c>
       <c r="W16" t="n">
-        <v>874.6385818722729</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X16" t="n">
-        <v>646.6490309742555</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y16" t="n">
-        <v>646.6490309742555</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5601,7 +5601,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>562.7003690904323</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,13 +5762,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>507.0827848727882</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C22" t="n">
-        <v>507.0827848727882</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D22" t="n">
-        <v>507.0827848727882</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1491.062473736924</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1267.27705852643</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>978.1484197399884</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>978.1484197399884</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>688.7312497030279</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X22" t="n">
-        <v>688.7312497030279</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y22" t="n">
-        <v>688.7312497030279</v>
+        <v>538.3132412509711</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,10 +5990,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D25" t="n">
         <v>478.0475988506726</v>
@@ -6151,7 +6151,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,7 +6166,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6373,13 +6373,13 @@
         <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6616,7 +6616,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6634,13 +6634,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2414.338624996072</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2045.376108055661</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1687.11040944891</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.322156850666</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>890.3362520610583</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>474.2104775260164</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>178.1662213703548</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>342.3056183942699</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>865.7084769632996</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1567.312633007098</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2364.588986726988</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.134107831019</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3866.157168855215</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4431.057134111018</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4778.051722419721</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4712.578515676733</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4501.989840587337</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4248.375097910771</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3917.3122105672</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3564.543555297086</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3191.077797036006</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2800.938465060194</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>985.7752020406868</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>811.3221727595599</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>662.3877630983086</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>503.150308092853</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>356.615750119738</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>219.6890717239233</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>123.744198155611</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>261.8822366007568</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>672.7725054452694</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>919.5376333517335</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1226.857766631695</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1724.313846855279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2003.853912073976</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2524.154533809723</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2611.287436266947</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>2621.917448364247</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>2482.011343448021</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>2287.096727371799</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>2058.991802991186</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1823.839694759443</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>1569.602338031242</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>1361.750837825709</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>1153.990539060755</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>657.8041820989419</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C37" t="n">
-        <v>557.688090211076</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D37" t="n">
-        <v>476.3915418387812</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>397.2985392964291</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>319.2286828385598</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>219.8734521984215</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>138.2755347864059</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3942981406485</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>393.0302736136039</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>708.1928898530775</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
-        <v>1047.210203848605</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1385.204884104496</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1686.530433338237</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1930.580769172264</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2036.864783372765</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1994.609770974631</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1863.509851930224</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1708.544527759772</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1488.235980013371</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.371582847526</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1081.774503850606</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>922.6050439926297</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>770.6325558891406</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1404.507041060941</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2383.057343890769</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3362.809616117416</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3865.782086996753</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215051</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416715</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036714</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>1770.231306037953</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215051</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416715</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774091</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160446</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499227</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829557</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937959</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036714</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524670008</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>38.86002301949878</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>15.83804904622852</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.9555467112481</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>169.2863157167185</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>338.5992815305711</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,16 +10835,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,16 +11063,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>288.0478149561022</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>23.23244478112767</v>
+        <v>212.3395645172327</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>120.2061598692902</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>151.5755224052622</v>
+        <v>242.8926974207494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>71.73325480300623</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.05766046243846</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.5485779926489</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>51.48775256250553</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>119.5918126645902</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.145551130835</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>141.9223037914821</v>
       </c>
     </row>
     <row r="23">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1377566.007956822</v>
+        <v>1377566.007956823</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1444160.351870628</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1430181.515727497</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1430181.515727497</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1430181.515727497</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26314,10 @@
         <v>18391.92434782022</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="D2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
         <v>19551.45298688544</v>
@@ -26332,19 +26332,19 @@
         <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
+        <v>20526.04424660712</v>
+      </c>
+      <c r="J2" t="n">
         <v>20526.04424660711</v>
       </c>
-      <c r="J2" t="n">
-        <v>20526.04424660712</v>
-      </c>
       <c r="K2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="M2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>216643.6227495944</v>
+        <v>54505.51210371258</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125767.3623801284</v>
+        <v>125767.3623801285</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26439,25 +26439,25 @@
         <v>51722.3327936228</v>
       </c>
       <c r="J4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="K4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="L4" t="n">
+        <v>51722.33279362283</v>
+      </c>
+      <c r="M4" t="n">
+        <v>51722.33279362283</v>
+      </c>
+      <c r="N4" t="n">
+        <v>51722.33279362283</v>
+      </c>
+      <c r="O4" t="n">
         <v>51722.33279362282</v>
       </c>
-      <c r="M4" t="n">
-        <v>54709.97259871802</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30134.53761950706</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30134.53761950705</v>
-      </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="K5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96456.5024909879</v>
-      </c>
-      <c r="N5" t="n">
-        <v>100332.6710141021</v>
-      </c>
-      <c r="O5" t="n">
-        <v>100332.6710141021</v>
-      </c>
-      <c r="P5" t="n">
-        <v>100332.6710141021</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-780202.3953102621</v>
+        <v>-780415.8073001408</v>
       </c>
       <c r="C6" t="n">
-        <v>-236823.8111386285</v>
+        <v>-236823.8111386286</v>
       </c>
       <c r="D6" t="n">
         <v>-236823.8111386285</v>
       </c>
       <c r="E6" t="n">
-        <v>-626899.4549910296</v>
+        <v>-626996.9141170017</v>
       </c>
       <c r="F6" t="n">
-        <v>-101739.4185141335</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="G6" t="n">
-        <v>-101739.4185141335</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="H6" t="n">
-        <v>-101739.4185141336</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="I6" t="n">
         <v>-183416.9064707536</v>
       </c>
       <c r="J6" t="n">
-        <v>-305334.613559634</v>
+        <v>-305334.6135596341</v>
       </c>
       <c r="K6" t="n">
         <v>-128911.3943670411</v>
@@ -26552,16 +26552,16 @@
         <v>-128911.3943670411</v>
       </c>
       <c r="M6" t="n">
-        <v>-260282.7456820436</v>
+        <v>-263712.4096008783</v>
       </c>
       <c r="N6" t="n">
-        <v>-326584.7871365965</v>
+        <v>-183416.9064707537</v>
       </c>
       <c r="O6" t="n">
-        <v>-109941.1643870021</v>
+        <v>-128911.3943670411</v>
       </c>
       <c r="P6" t="n">
-        <v>-109941.1643870021</v>
+        <v>-128911.3943670411</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P2" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859261</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>259.394295139198</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>194.5364812244787</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>59.03485063114027</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27433,16 +27433,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>13.78218516654823</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>294.3803606156437</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>152.8473130707058</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.669206330491306</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>246.370194480432</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>69.37109817005717</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>80.45770631151223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28336,58 +28336,58 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>9.003997547551989e-13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>12.20343551721271</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964072</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9751366185926</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,10 +36999,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>222.9314639777532</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>249.2369534806823</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>502.4808891147315</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>794.1893959229033</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>840.3496503690137</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165882</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
